--- a/MSE_Bank_literacy.xlsx
+++ b/MSE_Bank_literacy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project on ML\MSE_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0E20B-DBA9-4A8C-8240-A0492147C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498F23B9-EB27-49FE-A8DF-347AB9ABD792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58293083-253E-4574-A1E8-67925D83307B}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC1E405-B2B6-440E-B81F-C0AFD0C249B9}">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,10 +460,10 @@
     <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -482,11 +482,11 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,11 +505,11 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="G2" s="3">
         <v>1.125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,11 +528,11 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="G3" s="3">
         <v>1.265625</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,11 +551,11 @@
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="G4" s="3">
         <v>0.18880208333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,11 +574,11 @@
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="G5" s="3">
         <v>17.125868055555561</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,11 +597,11 @@
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="G6" s="3">
         <v>3.2657335069444451</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,11 +620,11 @@
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="G7" s="3">
         <v>2.044288917824074</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,11 +643,11 @@
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="G8" s="3">
         <v>1.840714819637346</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,11 +666,11 @@
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="G9" s="3">
         <v>1.806785803272891</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,11 +689,11 @@
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="G10" s="3">
         <v>0.23389881693940759</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,11 +712,11 @@
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="G11" s="3">
         <v>0.10282490141161731</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,11 +735,11 @@
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="G12" s="3">
         <v>1.1378531126764519</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -758,264 +758,264 @@
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
         <v>32.333333333333343</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>12.83333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>1.75925925925926</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <v>9.586419753086421</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
         <v>7.7644032921810702</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>11.58813443072702</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>3.4313557384545041</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
         <v>1.5539194673068131</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>18.035946311537881</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15.011982103845961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,149 +1034,149 @@
       <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="3">
+      <c r="G25" s="3">
+        <v>15.011982103845961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>14.003994034615321</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>1.125</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>1.6875</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
         <v>18.125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
         <v>15.04166666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>27.027777777777779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2.3356481481481488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,149 +1195,149 @@
       <c r="F32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
+      <c r="G32" s="3">
+        <v>27.027777777777779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2.3356481481481488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
         <v>18.557098765432102</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
-        <v>32.333333333333343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
-        <v>19.777777777777779</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>15.59259259259259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>4.0987654320987659</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,11 +1356,11 @@
       <c r="F39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="3">
-        <v>10.36625514403292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G39" s="3">
+        <v>32.333333333333343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,11 +1379,11 @@
       <c r="F40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="3">
-        <v>3.227709190672154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G40" s="3">
+        <v>19.777777777777779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,11 +1402,11 @@
       <c r="F41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I41" s="3">
-        <v>2.0379515317786931</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G41" s="3">
+        <v>15.59259259259259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,11 +1425,11 @@
       <c r="F42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I42" s="3">
-        <v>9.6793171772595645</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G42" s="3">
+        <v>4.0987654320987659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,126 +1448,126 @@
       <c r="F43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="3">
+      <c r="G43" s="3">
+        <v>10.36625514403292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.227709190672154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2.0379515317786931</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>9.6793171772595645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>17.333333333333339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1.5277777777777779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0.2106481481481482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,11 +1586,11 @@
       <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I49" s="3">
-        <v>1.535108024691358</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1609,126 +1609,126 @@
       <c r="F50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I50" s="3">
+      <c r="G50" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>17.333333333333339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1.5277777777777779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.2106481481481482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1.535108024691358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
         <v>9.5117026748971192</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>12.170567558299039</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3">
-        <v>11.29264188957476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3">
-        <v>8.3333333333333343E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>6.6851851851851851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>11.228395061728399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="F56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I56" s="3">
-        <v>2.5285493827160499</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G56" s="3">
+        <v>12.170567558299039</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,11 +1770,11 @@
       <c r="F57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="3">
-        <v>1.4410686728395059</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G57" s="3">
+        <v>11.29264188957476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -1793,11 +1793,11 @@
       <c r="F58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I58" s="3">
-        <v>0.20342238940329219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,11 +1816,11 @@
       <c r="F59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="3">
-        <v>0.100285199116941</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G59" s="3">
+        <v>8.3333333333333343E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,11 +1839,11 @@
       <c r="F60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G60" s="3">
+        <v>6.6851851851851851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1862,11 +1862,11 @@
       <c r="F61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I61" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G61" s="3">
+        <v>11.228395061728399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,11 +1885,11 @@
       <c r="F62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I62" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G62" s="3">
+        <v>2.5285493827160499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,11 +1908,11 @@
       <c r="F63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="3">
-        <v>1.5625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G63" s="3">
+        <v>1.4410686728395059</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,11 +1931,11 @@
       <c r="F64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="3">
-        <v>8.640625</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G64" s="3">
+        <v>0.20342238940329219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -1954,11 +1954,11 @@
       <c r="F65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I65" s="3">
-        <v>0.80338541666666674</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G65" s="3">
+        <v>0.100285199116941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -1977,11 +1977,11 @@
       <c r="F66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="3">
-        <v>1.225423177083333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -2000,11 +2000,11 @@
       <c r="F67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I67" s="3">
-        <v>1.704237196180556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G67" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,11 +2023,11 @@
       <c r="F68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I68" s="3">
-        <v>9.568079065393519</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G68" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,11 +2046,11 @@
       <c r="F69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="3">
-        <v>12.18935968846451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G69" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,11 +2069,11 @@
       <c r="F70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="3">
-        <v>13.06311989615484</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G70" s="3">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,11 +2092,11 @@
       <c r="F71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="3">
-        <v>13.354373298718279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G71" s="3">
+        <v>8.640625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,11 +2115,11 @@
       <c r="F72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="3">
-        <v>2.7942966623397849</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G72" s="3">
+        <v>0.80338541666666674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2138,11 +2138,11 @@
       <c r="F73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="3">
-        <v>1.9657161103899641</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G73" s="3">
+        <v>1.225423177083333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,11 +2161,11 @@
       <c r="F74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I74" s="3">
-        <v>9.655238703463322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G74" s="3">
+        <v>1.704237196180556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -2184,11 +2184,11 @@
       <c r="F75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I75" s="3">
-        <v>12.218412901154441</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G75" s="3">
+        <v>9.568079065393519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -2207,11 +2207,11 @@
       <c r="F76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I76" s="3">
-        <v>1.1015344084295371</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G76" s="3">
+        <v>12.18935968846451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -2230,11 +2230,11 @@
       <c r="F77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I77" s="3">
-        <v>1.683589068071589</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G77" s="3">
+        <v>13.06311989615484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2253,11 +2253,11 @@
       <c r="F78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I78" s="3">
-        <v>1.335448633508949</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G78" s="3">
+        <v>13.354373298718279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,11 +2276,11 @@
       <c r="F79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I79" s="3">
-        <v>1.722574772251491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G79" s="3">
+        <v>2.7942966623397849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,11 +2299,11 @@
       <c r="F80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I80" s="3">
-        <v>9.5741915907504982</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="3">
+        <v>1.9657161103899641</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -2322,11 +2322,11 @@
       <c r="F81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I81" s="3">
-        <v>7.7623652651250836</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G81" s="3">
+        <v>9.655238703463322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,11 +2345,11 @@
       <c r="F82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I82" s="3">
-        <v>11.58745508837503</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G82" s="3">
+        <v>12.218412901154441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -2368,11 +2368,11 @@
       <c r="F83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I83" s="3">
-        <v>11.146863772093759</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G83" s="3">
+        <v>1.1015344084295371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2391,11 +2391,11 @@
       <c r="F84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I84" s="3">
-        <v>24.431242514729171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G84" s="3">
+        <v>1.683589068071589</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,11 +2414,11 @@
       <c r="F85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I85" s="3">
-        <v>17.143747504909729</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G85" s="3">
+        <v>1.335448633508949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -2437,11 +2437,11 @@
       <c r="F86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I86" s="3">
-        <v>28.429165003273152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G86" s="3">
+        <v>1.722574772251491</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -2460,11 +2460,11 @@
       <c r="F87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I87" s="3">
-        <v>3.4921294448081279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G87" s="3">
+        <v>9.5741915907504982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,11 +2483,11 @@
       <c r="F88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I88" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G88" s="3">
+        <v>7.7623652651250836</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -2506,11 +2506,11 @@
       <c r="F89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I89" s="3">
-        <v>14.66666666666667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G89" s="3">
+        <v>11.58745508837503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -2529,11 +2529,11 @@
       <c r="F90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I90" s="3">
-        <v>1.305555555555556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G90" s="3">
+        <v>11.146863772093759</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,11 +2552,11 @@
       <c r="F91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I91" s="3">
-        <v>17.87037037037037</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G91" s="3">
+        <v>24.431242514729171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,11 +2575,11 @@
       <c r="F92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I92" s="3">
-        <v>10.637860082304529</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G92" s="3">
+        <v>17.143747504909729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -2598,287 +2598,287 @@
       <c r="F93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I93" s="3">
+      <c r="G93" s="3">
+        <v>28.429165003273152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>3.4921294448081279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>14.66666666666667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1.305555555555556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>17.87037037037037</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>10.637860082304529</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>12.545953360768181</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3">
         <v>2.6932441700960221</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I95" s="3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3">
         <v>0.30777034750800192</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>2</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3">
         <v>0.1089808622923335</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I97" s="3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3">
         <v>15.554490431146171</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>2</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I98" s="3">
-        <v>27.369660287430779</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I99" s="3">
-        <v>4.5462075359288479</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>2</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>2</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I102" s="3">
-        <v>21.666666666666671</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I103" s="3">
-        <v>16.222222222222221</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I104" s="3">
-        <v>12.305555555555561</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I105" s="3">
-        <v>13.101851851851849</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -2897,333 +2897,333 @@
       <c r="F106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I106" s="3">
+      <c r="G106" s="3">
+        <v>27.369660287430779</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3">
+        <v>4.5462075359288479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G111" s="3">
+        <v>21.666666666666671</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>16.222222222222221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>12.305555555555561</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>13.101851851851849</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
         <v>13.36728395061728</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>2</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I107" s="3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
         <v>8.3333333333333343E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="1">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I108" s="3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3">
         <v>8.25</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>2</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I109" s="3">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>1</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I110" s="3">
-        <v>8.3333333333333343E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>2</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I111" s="3">
-        <v>9.0277777777777786</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>2</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I112" s="3">
-        <v>3.0046296296296302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I113" s="3">
-        <v>6.5015432098765444</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>2</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I114" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I115" s="3">
-        <v>1.8125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="1">
-        <v>0</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I116" s="3">
-        <v>0.234375</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I117" s="3">
-        <v>0.1028645833333333</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I118" s="3">
-        <v>2.6838107638888888</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I119" s="3">
-        <v>1.4604763454861109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>1</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I120" s="3">
-        <v>0.20503969545717601</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -3242,11 +3242,11 @@
       <c r="F121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I121" s="3">
-        <v>0.1004199746214313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G121" s="3">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
@@ -3265,11 +3265,11 @@
       <c r="F122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I122" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -3288,11 +3288,11 @@
       <c r="F123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I123" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G123" s="3">
+        <v>8.3333333333333343E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -3311,11 +3311,11 @@
       <c r="F124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I124" s="3">
-        <v>5.125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G124" s="3">
+        <v>9.0277777777777786</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -3334,11 +3334,11 @@
       <c r="F125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I125" s="3">
-        <v>0.51041666666666674</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G125" s="3">
+        <v>3.0046296296296302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -3357,35 +3357,35 @@
       <c r="F126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I126" s="3">
-        <v>0.12586805555555561</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G126" s="3">
+        <v>6.5015432098765444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B127" s="1">
         <v>4</v>
       </c>
-      <c r="I127" s="3">
-        <v>5.541956018518519</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I128" s="3">
-        <v>0.54516300154320996</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I129" s="3">
-        <v>0.1287635834619342</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -3404,11 +3404,11 @@
       <c r="F130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I130" s="3">
-        <v>9.4063631955161181E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G130" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -3427,11 +3427,11 @@
       <c r="F131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I131" s="3">
-        <v>8.2735159079887897</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G131" s="3">
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -3450,11 +3450,11 @@
       <c r="F132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I132" s="3">
-        <v>11.75783863599626</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G132" s="3">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -3473,11 +3473,11 @@
       <c r="F133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I133" s="3">
-        <v>1.0631532196663549</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G133" s="3">
+        <v>0.1028645833333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -3496,11 +3496,11 @@
       <c r="F134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I134" s="3">
-        <v>0.17192943497219629</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G134" s="3">
+        <v>2.6838107638888888</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -3519,11 +3519,11 @@
       <c r="F135" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I135" s="3">
-        <v>9.7660786247683026E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G135" s="3">
+        <v>1.4604763454861109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -3542,11 +3542,11 @@
       <c r="F136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I136" s="3">
-        <v>1.13720759828096</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G136" s="3">
+        <v>0.20503969545717601</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -3562,19 +3562,19 @@
       <c r="F137" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I137" s="3">
-        <v>17.758138398853969</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G137" s="3">
+        <v>0.1004199746214313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I138" s="3">
-        <v>1.563178199904498</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -3593,11 +3593,11 @@
       <c r="F139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I139" s="3">
-        <v>0.21359818332537481</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G139" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -3616,11 +3616,11 @@
       <c r="F140" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I140" s="3">
-        <v>0.10113318194378131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G140" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -3639,11 +3639,11 @@
       <c r="F141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I141" s="3">
-        <v>9.0337110606479278</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G141" s="3">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -3662,11 +3662,11 @@
       <c r="F142" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I142" s="3">
-        <v>10.508427765161979</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G142" s="3">
+        <v>0.51041666666666674</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -3685,11 +3685,11 @@
       <c r="F143" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I143" s="3">
-        <v>0.95903564709683198</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G143" s="3">
+        <v>0.12586805555555561</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -3708,8 +3708,11 @@
       <c r="F144" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="3">
+        <v>5.541956018518519</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -3728,8 +3731,11 @@
       <c r="F145" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="3">
+        <v>0.54516300154320996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -3748,8 +3754,11 @@
       <c r="F146" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="3">
+        <v>0.1287635834619342</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -3768,8 +3777,11 @@
       <c r="F147" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="3">
+        <v>9.4063631955161181E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -3788,8 +3800,11 @@
       <c r="F148" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="3">
+        <v>8.2735159079887897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -3808,8 +3823,11 @@
       <c r="F149" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="3">
+        <v>11.75783863599626</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -3828,8 +3846,11 @@
       <c r="F150" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="3">
+        <v>1.0631532196663549</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -3848,8 +3869,11 @@
       <c r="F151" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="3">
+        <v>0.17192943497219629</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
@@ -3868,8 +3892,11 @@
       <c r="F152" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="3">
+        <v>9.7660786247683026E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -3888,8 +3915,11 @@
       <c r="F153" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="3">
+        <v>1.13720759828096</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
@@ -3908,8 +3938,11 @@
       <c r="F154" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="3">
+        <v>17.758138398853969</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -3928,8 +3961,11 @@
       <c r="F155" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="3">
+        <v>1.563178199904498</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
@@ -3948,8 +3984,11 @@
       <c r="F156" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="3">
+        <v>0.21359818332537481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
@@ -3968,8 +4007,11 @@
       <c r="F157" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="3">
+        <v>0.10113318194378131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -3988,8 +4030,11 @@
       <c r="F158" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="3">
+        <v>9.0337110606479278</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -4008,8 +4053,11 @@
       <c r="F159" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="3">
+        <v>10.508427765161979</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -4027,6 +4075,9 @@
       </c>
       <c r="F160" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0.95903564709683198</v>
       </c>
     </row>
   </sheetData>

--- a/MSE_Bank_literacy.xlsx
+++ b/MSE_Bank_literacy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project on ML\MSE_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\praxis 2\MSE\project\finanacual literacy\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498F23B9-EB27-49FE-A8DF-347AB9ABD792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9BB910-13E9-40D3-9616-F6513249055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58293083-253E-4574-A1E8-67925D83307B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58293083-253E-4574-A1E8-67925D83307B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bank_literacy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="10">
   <si>
     <t>Yes</t>
   </si>
@@ -56,15 +56,12 @@
   <si>
     <t>UBA</t>
   </si>
-  <si>
-    <t>Score</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,30 +69,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -125,13 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,24 +422,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC1E405-B2B6-440E-B81F-C0AFD0C249B9}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -482,11 +458,8 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,11 +478,8 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,11 +498,8 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
-        <v>1.265625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,11 +518,8 @@
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.18880208333333329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,11 +538,8 @@
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
-        <v>17.125868055555561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,11 +558,8 @@
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>3.2657335069444451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,11 +578,8 @@
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>2.044288917824074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,11 +598,8 @@
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>1.840714819637346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,11 +618,8 @@
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>1.806785803272891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,11 +638,8 @@
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.23389881693940759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,11 +658,8 @@
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.10282490141161731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,11 +678,8 @@
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
-        <v>1.1378531126764519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -758,11 +698,8 @@
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,11 +718,8 @@
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,11 +738,8 @@
       <c r="F15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,11 +758,8 @@
       <c r="F16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
-        <v>32.333333333333343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,11 +778,8 @@
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
-        <v>12.83333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,11 +798,8 @@
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <v>1.75925925925926</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,11 +818,8 @@
       <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="3">
-        <v>9.586419753086421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,11 +838,8 @@
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="3">
-        <v>7.7644032921810702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,11 +858,8 @@
       <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="3">
-        <v>11.58813443072702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,11 +878,8 @@
       <c r="F22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>3.4313557384545041</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,11 +898,8 @@
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="3">
-        <v>1.5539194673068131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,11 +918,8 @@
       <c r="F24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>18.035946311537881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,11 +938,8 @@
       <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="3">
-        <v>15.011982103845961</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,11 +958,8 @@
       <c r="F26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="3">
-        <v>14.003994034615321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,11 +978,8 @@
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,11 +998,8 @@
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="3">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,11 +1018,8 @@
       <c r="F29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="3">
-        <v>1.6875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,11 +1038,8 @@
       <c r="F30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="3">
-        <v>18.125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,11 +1058,8 @@
       <c r="F31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="3">
-        <v>15.04166666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,11 +1078,8 @@
       <c r="F32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>27.027777777777779</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,11 +1098,8 @@
       <c r="F33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="3">
-        <v>2.3356481481481488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,11 +1118,8 @@
       <c r="F34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="3">
-        <v>18.557098765432102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1264,11 +1138,8 @@
       <c r="F35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1287,11 +1158,8 @@
       <c r="F36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,11 +1178,8 @@
       <c r="F37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,11 +1198,8 @@
       <c r="F38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,11 +1218,8 @@
       <c r="F39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="3">
-        <v>32.333333333333343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,11 +1238,8 @@
       <c r="F40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="3">
-        <v>19.777777777777779</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,11 +1258,8 @@
       <c r="F41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
-        <v>15.59259259259259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,11 +1278,8 @@
       <c r="F42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="3">
-        <v>4.0987654320987659</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,11 +1298,8 @@
       <c r="F43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="3">
-        <v>10.36625514403292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,11 +1318,8 @@
       <c r="F44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="3">
-        <v>3.227709190672154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,11 +1338,8 @@
       <c r="F45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="3">
-        <v>2.0379515317786931</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1517,11 +1358,8 @@
       <c r="F46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="3">
-        <v>9.6793171772595645</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -1540,11 +1378,8 @@
       <c r="F47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,11 +1398,8 @@
       <c r="F48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,11 +1418,8 @@
       <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1609,11 +1438,8 @@
       <c r="F50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1632,11 +1458,8 @@
       <c r="F51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="3">
-        <v>17.333333333333339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,11 +1478,8 @@
       <c r="F52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G52" s="3">
-        <v>1.5277777777777779</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,11 +1498,8 @@
       <c r="F53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="3">
-        <v>0.2106481481481482</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1701,11 +1518,8 @@
       <c r="F54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="3">
-        <v>1.535108024691358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,11 +1538,8 @@
       <c r="F55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="3">
-        <v>9.5117026748971192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1747,11 +1558,8 @@
       <c r="F56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="3">
-        <v>12.170567558299039</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,11 +1578,8 @@
       <c r="F57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G57" s="3">
-        <v>11.29264188957476</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -1793,11 +1598,8 @@
       <c r="F58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,11 +1618,8 @@
       <c r="F59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G59" s="3">
-        <v>8.3333333333333343E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,11 +1638,8 @@
       <c r="F60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="3">
-        <v>6.6851851851851851</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1862,11 +1658,8 @@
       <c r="F61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G61" s="3">
-        <v>11.228395061728399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,11 +1678,8 @@
       <c r="F62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="3">
-        <v>2.5285493827160499</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,11 +1698,8 @@
       <c r="F63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="3">
-        <v>1.4410686728395059</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,11 +1718,8 @@
       <c r="F64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G64" s="3">
-        <v>0.20342238940329219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -1954,11 +1738,8 @@
       <c r="F65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G65" s="3">
-        <v>0.100285199116941</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -1977,11 +1758,8 @@
       <c r="F66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -2000,11 +1778,8 @@
       <c r="F67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,11 +1798,8 @@
       <c r="F68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G68" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,11 +1818,8 @@
       <c r="F69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G69" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,11 +1838,8 @@
       <c r="F70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="3">
-        <v>1.5625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,11 +1858,8 @@
       <c r="F71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="3">
-        <v>8.640625</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,11 +1878,8 @@
       <c r="F72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="3">
-        <v>0.80338541666666674</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2138,11 +1898,8 @@
       <c r="F73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G73" s="3">
-        <v>1.225423177083333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,11 +1918,8 @@
       <c r="F74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G74" s="3">
-        <v>1.704237196180556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -2184,11 +1938,8 @@
       <c r="F75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="3">
-        <v>9.568079065393519</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -2207,11 +1958,8 @@
       <c r="F76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G76" s="3">
-        <v>12.18935968846451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -2230,11 +1978,8 @@
       <c r="F77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G77" s="3">
-        <v>13.06311989615484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2253,11 +1998,8 @@
       <c r="F78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G78" s="3">
-        <v>13.354373298718279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,11 +2018,8 @@
       <c r="F79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G79" s="3">
-        <v>2.7942966623397849</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,11 +2038,8 @@
       <c r="F80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="3">
-        <v>1.9657161103899641</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -2322,11 +2058,8 @@
       <c r="F81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G81" s="3">
-        <v>9.655238703463322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,11 +2078,8 @@
       <c r="F82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="3">
-        <v>12.218412901154441</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -2368,11 +2098,8 @@
       <c r="F83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="3">
-        <v>1.1015344084295371</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2391,11 +2118,8 @@
       <c r="F84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G84" s="3">
-        <v>1.683589068071589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,11 +2138,8 @@
       <c r="F85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="3">
-        <v>1.335448633508949</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -2437,11 +2158,8 @@
       <c r="F86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G86" s="3">
-        <v>1.722574772251491</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -2460,11 +2178,8 @@
       <c r="F87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G87" s="3">
-        <v>9.5741915907504982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,11 +2198,8 @@
       <c r="F88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="3">
-        <v>7.7623652651250836</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -2506,11 +2218,8 @@
       <c r="F89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G89" s="3">
-        <v>11.58745508837503</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -2529,11 +2238,8 @@
       <c r="F90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G90" s="3">
-        <v>11.146863772093759</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,11 +2258,8 @@
       <c r="F91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
-        <v>24.431242514729171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,11 +2278,8 @@
       <c r="F92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="3">
-        <v>17.143747504909729</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -2598,11 +2298,8 @@
       <c r="F93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G93" s="3">
-        <v>28.429165003273152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -2621,11 +2318,8 @@
       <c r="F94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>3.4921294448081279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
@@ -2644,11 +2338,8 @@
       <c r="F95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,11 +2358,8 @@
       <c r="F96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G96" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -2690,11 +2378,8 @@
       <c r="F97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="3">
-        <v>14.66666666666667</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -2713,11 +2398,8 @@
       <c r="F98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G98" s="3">
-        <v>1.305555555555556</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -2736,11 +2418,8 @@
       <c r="F99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G99" s="3">
-        <v>17.87037037037037</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -2759,11 +2438,8 @@
       <c r="F100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G100" s="3">
-        <v>10.637860082304529</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -2782,11 +2458,8 @@
       <c r="F101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G101" s="3">
-        <v>12.545953360768181</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,11 +2478,8 @@
       <c r="F102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G102" s="3">
-        <v>2.6932441700960221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -2828,11 +2498,8 @@
       <c r="F103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G103" s="3">
-        <v>0.30777034750800192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -2851,11 +2518,8 @@
       <c r="F104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G104" s="3">
-        <v>0.1089808622923335</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -2874,11 +2538,8 @@
       <c r="F105" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G105" s="3">
-        <v>15.554490431146171</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -2897,11 +2558,8 @@
       <c r="F106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="3">
-        <v>27.369660287430779</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -2920,11 +2578,8 @@
       <c r="F107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G107" s="3">
-        <v>4.5462075359288479</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
@@ -2943,11 +2598,8 @@
       <c r="F108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G108" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -2966,11 +2618,8 @@
       <c r="F109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G109" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -2989,11 +2638,8 @@
       <c r="F110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G110" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -3012,11 +2658,8 @@
       <c r="F111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G111" s="3">
-        <v>21.666666666666671</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -3035,11 +2678,8 @@
       <c r="F112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G112" s="3">
-        <v>16.222222222222221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -3058,11 +2698,8 @@
       <c r="F113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G113" s="3">
-        <v>12.305555555555561</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -3081,11 +2718,8 @@
       <c r="F114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="3">
-        <v>13.101851851851849</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -3104,11 +2738,8 @@
       <c r="F115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G115" s="3">
-        <v>13.36728395061728</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -3127,11 +2758,8 @@
       <c r="F116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G116" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -3150,11 +2778,8 @@
       <c r="F117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G117" s="3">
-        <v>8.3333333333333343E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -3173,11 +2798,8 @@
       <c r="F118" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -3196,11 +2818,8 @@
       <c r="F119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G119" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3219,11 +2838,8 @@
       <c r="F120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G120" s="3">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -3242,11 +2858,8 @@
       <c r="F121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G121" s="3">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
@@ -3265,11 +2878,8 @@
       <c r="F122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G122" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -3288,11 +2898,8 @@
       <c r="F123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G123" s="3">
-        <v>8.3333333333333343E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -3311,11 +2918,8 @@
       <c r="F124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G124" s="3">
-        <v>9.0277777777777786</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -3334,11 +2938,8 @@
       <c r="F125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G125" s="3">
-        <v>3.0046296296296302</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -3357,35 +2958,38 @@
       <c r="F126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G126" s="3">
-        <v>6.5015432098765444</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
       <c r="B127" s="1">
         <v>4</v>
       </c>
-      <c r="G127" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G128" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -3404,11 +3008,8 @@
       <c r="F130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G130" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -3427,11 +3028,8 @@
       <c r="F131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G131" s="3">
-        <v>1.8125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -3450,11 +3048,8 @@
       <c r="F132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G132" s="3">
-        <v>0.234375</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -3473,11 +3068,8 @@
       <c r="F133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G133" s="3">
-        <v>0.1028645833333333</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -3496,11 +3088,8 @@
       <c r="F134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G134" s="3">
-        <v>2.6838107638888888</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -3519,11 +3108,8 @@
       <c r="F135" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G135" s="3">
-        <v>1.4604763454861109</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -3542,14 +3128,12 @@
       <c r="F136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G136" s="3">
-        <v>0.20503969545717601</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
         <v>1</v>
       </c>
@@ -3562,19 +3146,18 @@
       <c r="F137" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="3">
-        <v>0.1004199746214313</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -3593,11 +3176,8 @@
       <c r="F139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G139" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -3616,11 +3196,8 @@
       <c r="F140" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -3639,11 +3216,8 @@
       <c r="F141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G141" s="3">
-        <v>5.125</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -3662,11 +3236,8 @@
       <c r="F142" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="3">
-        <v>0.51041666666666674</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -3685,11 +3256,8 @@
       <c r="F143" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G143" s="3">
-        <v>0.12586805555555561</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -3708,11 +3276,8 @@
       <c r="F144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G144" s="3">
-        <v>5.541956018518519</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -3731,11 +3296,8 @@
       <c r="F145" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G145" s="3">
-        <v>0.54516300154320996</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -3754,11 +3316,8 @@
       <c r="F146" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G146" s="3">
-        <v>0.1287635834619342</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -3777,11 +3336,8 @@
       <c r="F147" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G147" s="3">
-        <v>9.4063631955161181E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -3800,11 +3356,8 @@
       <c r="F148" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G148" s="3">
-        <v>8.2735159079887897</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -3823,11 +3376,8 @@
       <c r="F149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G149" s="3">
-        <v>11.75783863599626</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -3846,11 +3396,8 @@
       <c r="F150" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G150" s="3">
-        <v>1.0631532196663549</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -3869,11 +3416,8 @@
       <c r="F151" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G151" s="3">
-        <v>0.17192943497219629</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
@@ -3892,11 +3436,8 @@
       <c r="F152" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G152" s="3">
-        <v>9.7660786247683026E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -3915,11 +3456,8 @@
       <c r="F153" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G153" s="3">
-        <v>1.13720759828096</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
@@ -3938,11 +3476,8 @@
       <c r="F154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G154" s="3">
-        <v>17.758138398853969</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -3961,11 +3496,8 @@
       <c r="F155" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G155" s="3">
-        <v>1.563178199904498</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
@@ -3984,11 +3516,8 @@
       <c r="F156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G156" s="3">
-        <v>0.21359818332537481</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
@@ -4007,11 +3536,8 @@
       <c r="F157" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G157" s="3">
-        <v>0.10113318194378131</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -4030,11 +3556,8 @@
       <c r="F158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G158" s="3">
-        <v>9.0337110606479278</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -4053,11 +3576,8 @@
       <c r="F159" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G159" s="3">
-        <v>10.508427765161979</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -4075,9 +3595,6 @@
       </c>
       <c r="F160" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0.95903564709683198</v>
       </c>
     </row>
   </sheetData>
